--- a/DataFiles_Excel/GrantHistoryBarChart/ACFgrantHistTable.xlsx
+++ b/DataFiles_Excel/GrantHistoryBarChart/ACFgrantHistTable.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jim.ide\Desktop\annual-report-html2excel\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ferris\Documents\TAGGS 2016 AR\TaggsAR2016-master\DataFiles_Excel\GrantHistoryBarChart\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5730"/>
   </bookViews>
   <sheets>
     <sheet name="ACFgrantHistTable" sheetId="1" r:id="rId1"/>
@@ -24,13 +24,7 @@
     <t>ACF Award History</t>
   </si>
   <si>
-    <t>This table shows the grant awards and award dollars ACF made for FY 2011-2016. It is provided as a text alternative to the interactive chart on the ACF page of this website.</t>
-  </si>
-  <si>
     <t>ACF Grant Awards and Award Dollars Description</t>
-  </si>
-  <si>
-    <t>Grant awards and award dollars ACF made for FY 2011-2016.</t>
   </si>
   <si>
     <t>Fiscal Year</t>
@@ -40,6 +34,12 @@
   </si>
   <si>
     <t>Total Award Amount</t>
+  </si>
+  <si>
+    <t>This table shows the grant awards and award dollars ACF made for FY 2012-2016. It is provided as a text alternative to the interactive chart on the ACF page of this website.</t>
+  </si>
+  <si>
+    <t>Grant awards and award dollars ACF made for FY 2012-2016.</t>
   </si>
 </sst>
 </file>
@@ -910,7 +910,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -926,7 +928,7 @@
     </row>
     <row r="3" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -934,7 +936,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -946,7 +948,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -958,13 +960,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">

--- a/DataFiles_Excel/GrantHistoryBarChart/ACFgrantHistTable.xlsx
+++ b/DataFiles_Excel/GrantHistoryBarChart/ACFgrantHistTable.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ferris\Documents\TAGGS 2016 AR\TaggsAR2016-master\DataFiles_Excel\GrantHistoryBarChart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Engineering Projects\Annual Report\2016-html2excel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="ACFgrantHistTable" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,13 @@
     <t>ACF Award History</t>
   </si>
   <si>
+    <t>This table shows the grant awards and award dollars ACF made for FY 2012-2016. It is provided as a text alternative to the interactive chart on the ACF page of this website.</t>
+  </si>
+  <si>
     <t>ACF Grant Awards and Award Dollars Description</t>
+  </si>
+  <si>
+    <t>Grant awards and award dollars ACF made for FY 2012-2016.</t>
   </si>
   <si>
     <t>Fiscal Year</t>
@@ -35,12 +41,6 @@
   <si>
     <t>Total Award Amount</t>
   </si>
-  <si>
-    <t>This table shows the grant awards and award dollars ACF made for FY 2012-2016. It is provided as a text alternative to the interactive chart on the ACF page of this website.</t>
-  </si>
-  <si>
-    <t>Grant awards and award dollars ACF made for FY 2012-2016.</t>
-  </si>
 </sst>
 </file>
 
@@ -49,7 +49,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,8 +185,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -534,23 +549,26 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -908,17 +926,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C7"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31.5" x14ac:dyDescent="0.5">
@@ -926,9 +943,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>5</v>
+    <row r="3" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -936,37 +953,37 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -974,7 +991,7 @@
         <v>2012</v>
       </c>
       <c r="B10" s="3">
-        <v>7986</v>
+        <v>7977</v>
       </c>
       <c r="C10" s="4">
         <v>47908116593</v>
@@ -985,7 +1002,7 @@
         <v>2013</v>
       </c>
       <c r="B11" s="3">
-        <v>7442</v>
+        <v>7436</v>
       </c>
       <c r="C11" s="4">
         <v>47518482031</v>
@@ -996,7 +1013,7 @@
         <v>2014</v>
       </c>
       <c r="B12" s="3">
-        <v>7304</v>
+        <v>7297</v>
       </c>
       <c r="C12" s="4">
         <v>49583810932</v>
@@ -1007,7 +1024,7 @@
         <v>2015</v>
       </c>
       <c r="B13" s="3">
-        <v>7557</v>
+        <v>7544</v>
       </c>
       <c r="C13" s="4">
         <v>50038822759</v>
@@ -1018,7 +1035,7 @@
         <v>2016</v>
       </c>
       <c r="B14" s="3">
-        <v>7164</v>
+        <v>7154</v>
       </c>
       <c r="C14" s="4">
         <v>51372256944</v>
